--- a/DSC640_TermProject/Accidents_Vehicles.xlsx
+++ b/DSC640_TermProject/Accidents_Vehicles.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x/Documents/DSC640/DSC640_TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138EDCD3-30C6-1041-A363-44026C2A4DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A306A694-944D-2A4D-A21E-EEB66EE6991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{5DE42F85-7C50-6F40-88D7-4A9A7284249A}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" activeTab="1" xr2:uid="{5DE42F85-7C50-6F40-88D7-4A9A7284249A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="FatalCrashes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="28">
   <si>
     <t>Motor Vehicle Traffic Crashes</t>
   </si>
@@ -117,10 +117,10 @@
     <t>Fatalities per 100,000 Licensed Drivers</t>
   </si>
   <si>
-    <t>Fatalities</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Total Fatalities</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AC1"/>
+      <selection activeCell="B16" sqref="B16:AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2838,242 +2838,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B84ACD-80E5-194D-A2A8-971541F5FC61}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="2">
         <v>39508</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="4">
+        <v>42939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="2">
         <v>35935</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="4">
+        <v>39007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
       <c r="B4" s="2">
         <v>33487</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="4">
+        <v>36355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
       <c r="B5" s="2">
         <v>33919</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="4">
+        <v>36835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
       <c r="B6" s="2">
         <v>34560</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="4">
+        <v>37473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
       <c r="B7" s="2">
         <v>34748</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="4">
+        <v>37806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
       <c r="B8" s="2">
         <v>32538</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="4">
+        <v>35484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
       <c r="B9" s="2">
         <v>30056</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="4">
+        <v>32744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
       <c r="B10" s="2">
         <v>30202</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="4">
+        <v>32893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2012</v>
       </c>
       <c r="B11" s="2">
         <v>31006</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="4">
+        <v>33782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
       <c r="B12" s="2">
         <v>29867</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="4">
+        <v>32479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
       <c r="B13" s="2">
         <v>30296</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="4">
+        <v>32999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
       <c r="B14" s="2">
         <v>30862</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="4">
+        <v>33883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
       <c r="B15" s="2">
         <v>34172</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="4">
+        <v>37423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2007</v>
       </c>
       <c r="B16" s="2">
         <v>37435</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="4">
+        <v>41259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2006</v>
       </c>
       <c r="B17" s="2">
         <v>38648</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="4">
+        <v>42708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
       <c r="B18" s="2">
         <v>39252</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="4">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2004</v>
       </c>
       <c r="B19" s="2">
         <v>38444</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
+        <v>42836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
       <c r="B20" s="2">
         <v>38477</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="4">
+        <v>42884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2002</v>
       </c>
       <c r="B21" s="2">
         <v>38491</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="4">
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
       <c r="B22" s="2">
         <v>37862</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="4">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2000</v>
       </c>
       <c r="B23" s="2">
         <v>37526</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="4">
+        <v>41945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1999</v>
       </c>
       <c r="B24" s="2">
         <v>37140</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="4">
+        <v>41717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1998</v>
       </c>
       <c r="B25" s="2">
         <v>37107</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="4">
+        <v>41501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1997</v>
       </c>
       <c r="B26" s="2">
         <v>37324</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="4">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1996</v>
       </c>
       <c r="B27" s="2">
         <v>37494</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>42065</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1995</v>
       </c>
       <c r="B28" s="2">
         <v>37241</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>41817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1994</v>
       </c>
       <c r="B29" s="2">
         <v>36254</v>
+      </c>
+      <c r="C29" s="4">
+        <v>40716</v>
       </c>
     </row>
   </sheetData>

--- a/DSC640_TermProject/Accidents_Vehicles.xlsx
+++ b/DSC640_TermProject/Accidents_Vehicles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x/Documents/DSC640/DSC640_TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A306A694-944D-2A4D-A21E-EEB66EE6991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F9D127-7E48-7F4E-9682-D9B6A11FF700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" activeTab="1" xr2:uid="{5DE42F85-7C50-6F40-88D7-4A9A7284249A}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{5DE42F85-7C50-6F40-88D7-4A9A7284249A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,13 +511,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFF1ABC-4D1B-CB41-8CE3-0A496C23DA6E}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:AC16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -2840,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B84ACD-80E5-194D-A2A8-971541F5FC61}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
